--- a/documentation/Timesheets/Timesheet Sidwell.xlsx
+++ b/documentation/Timesheets/Timesheet Sidwell.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" tabRatio="993"/>
   </bookViews>
   <sheets>
-    <sheet name="Dave Cloete" sheetId="1" r:id="rId1"/>
+    <sheet name="Sidwell" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Task</t>
   </si>
@@ -33,12 +33,6 @@
     <t>End Time</t>
   </si>
   <si>
-    <t>ELEN-7046 Group Project – Individual Time sheet - Dave Cloete</t>
-  </si>
-  <si>
-    <t>Setup PI with Node.js and NAS mount</t>
-  </si>
-  <si>
     <t>Project Group Meeting 1</t>
   </si>
   <si>
@@ -60,15 +54,6 @@
     <t>Project Group Meeting 7</t>
   </si>
   <si>
-    <t>UI POC: D3 charting - Bar Chart tutorial, customised V Bar chart</t>
-  </si>
-  <si>
-    <t>UI POC: D3 charting - Heat Maps (Days/Category)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI POC: D3 charting - Heat Maps (Days/months) + refactoring of </t>
-  </si>
-  <si>
     <t>Project Group Meeting 8</t>
   </si>
   <si>
@@ -87,43 +72,40 @@
     <t>Estimated Hours</t>
   </si>
   <si>
-    <t>UI: Stream Graphs - Part 1</t>
-  </si>
-  <si>
-    <t>UI: Stream Graphs - Part 2</t>
-  </si>
-  <si>
-    <t>UI: Initial Stream Graph Research</t>
-  </si>
-  <si>
-    <t>UI: Criteria Configuration - Part 1</t>
-  </si>
-  <si>
-    <t>UI: Criteria Configuration - Part 2</t>
-  </si>
-  <si>
-    <t>UI: World /state Maps - Part 1</t>
-  </si>
-  <si>
-    <t>UI POC: Refactor and Testing</t>
-  </si>
-  <si>
-    <t>UI POC: Node.js Static web and Controllers</t>
-  </si>
-  <si>
-    <t>UI POC: Node.js Controllers - Added twig templating</t>
-  </si>
-  <si>
-    <t>UI POC: D3 Charting - Globe Chart</t>
-  </si>
-  <si>
-    <t>UI: Heat maps - Final</t>
-  </si>
-  <si>
     <t>Group Meeting 11(Virtual)</t>
   </si>
   <si>
     <t>Reports - Individual and Group</t>
+  </si>
+  <si>
+    <t>Start High Level Design Activities</t>
+  </si>
+  <si>
+    <t>Start Use Case Modeling</t>
+  </si>
+  <si>
+    <t>Complete Use Case Modeling</t>
+  </si>
+  <si>
+    <t>Identify Delivery Method (SDLC)</t>
+  </si>
+  <si>
+    <t>Deliver a Tailored Method based on RUP</t>
+  </si>
+  <si>
+    <t>Project Presentation Deck</t>
+  </si>
+  <si>
+    <t>Individual Report</t>
+  </si>
+  <si>
+    <t>Component Model</t>
+  </si>
+  <si>
+    <t>Infrastructure Deign</t>
+  </si>
+  <si>
+    <t>ELEN-7046 Group Project – Individual Time sheet - Sidwell Mokhemisa</t>
   </si>
 </sst>
 </file>
@@ -594,7 +576,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -602,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:F1"/>
@@ -621,7 +603,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -643,15 +625,15 @@
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>42484</v>
@@ -666,340 +648,340 @@
         <v>2</v>
       </c>
       <c r="F3" s="13">
-        <f t="shared" ref="F3:F32" si="0">D3-C3</f>
+        <f t="shared" ref="F3:F25" si="0">D3-C3</f>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3">
         <v>42488</v>
       </c>
       <c r="C4" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D4" s="4">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D4" s="4">
-        <v>0.875</v>
-      </c>
       <c r="E4" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" si="0"/>
-        <v>0.16666666666666663</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
         <v>42491</v>
       </c>
       <c r="C5" s="4">
-        <v>0.375</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="D5" s="4">
-        <v>0.5</v>
+        <v>0.6875</v>
       </c>
       <c r="E5" s="7">
         <v>2</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3">
-        <v>42491</v>
+        <v>42492</v>
       </c>
       <c r="C6" s="4">
-        <v>0.60416666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D6" s="4">
-        <v>0.6875</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="E6" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F6" s="13">
-        <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <f>D6-C6</f>
+        <v>0.16666666666666674</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3">
-        <v>42493</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E7" s="8">
-        <v>4</v>
+        <v>42497</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="E7" s="7">
+        <v>8</v>
       </c>
       <c r="F7" s="13">
         <f t="shared" si="0"/>
-        <v>0.20833333333333359</v>
+        <v>0.20833333333333331</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>42497</v>
+        <v>42498</v>
       </c>
       <c r="C8" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="D8" s="4">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="E8" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" s="13">
         <f t="shared" si="0"/>
-        <v>0.20833333333333331</v>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3">
-        <v>42498</v>
+        <v>42504</v>
       </c>
       <c r="C9" s="4">
-        <v>0.60416666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D9" s="4">
-        <v>0.6875</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E9" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="13">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>0.12499999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>42504</v>
+        <v>42505</v>
       </c>
       <c r="C10" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="D10" s="4">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="E10" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="13">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3">
-        <v>42505</v>
+        <v>42506</v>
       </c>
       <c r="C11" s="4">
-        <v>0.60416666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D11" s="4">
-        <v>0.6875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="13">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3">
-        <v>42506</v>
+        <v>42512</v>
       </c>
       <c r="C12" s="4">
-        <v>0.66666666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="D12" s="4">
-        <v>0.83333333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="E12" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" s="13">
         <f t="shared" si="0"/>
-        <v>0.16666666666666674</v>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3">
-        <v>42511</v>
+        <v>42513</v>
       </c>
       <c r="C13" s="4">
-        <v>0.60416666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="D13" s="4">
-        <v>0.6875</v>
+        <v>0.875</v>
       </c>
       <c r="E13" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F13" s="13">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="3">
-        <v>42512</v>
+        <v>42526</v>
       </c>
       <c r="C14" s="4">
-        <v>0.60416666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="4">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="E14" s="7">
         <v>2</v>
       </c>
       <c r="F14" s="13">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3">
-        <v>42512</v>
+        <v>42527</v>
       </c>
       <c r="C15" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="4">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D15" s="4">
-        <v>0.95833333333333337</v>
-      </c>
       <c r="E15" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F15" s="13">
         <f t="shared" si="0"/>
-        <v>4.1666666666666741E-2</v>
+        <v>0.16666666666666663</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B16" s="3">
-        <v>42518</v>
+        <v>42532</v>
       </c>
       <c r="C16" s="4">
         <v>0.41666666666666669</v>
       </c>
       <c r="D16" s="4">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E16" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F16" s="13">
         <f t="shared" si="0"/>
-        <v>0.29166666666666669</v>
+        <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3">
-        <v>42525</v>
+        <v>42539</v>
       </c>
       <c r="C17" s="4">
-        <v>0.83333333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="D17" s="4">
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="E17" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F17" s="13">
         <f t="shared" si="0"/>
-        <v>8.3333333333333259E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="3">
-        <v>42526</v>
+        <v>42540</v>
       </c>
       <c r="C18" s="4">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="D18" s="4">
-        <v>0.75</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E18" s="7">
         <v>2</v>
       </c>
       <c r="F18" s="13">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.16666666666666663</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3">
-        <v>42529</v>
+        <v>42540</v>
       </c>
       <c r="C19" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D19" s="4">
         <v>0.75</v>
       </c>
-      <c r="D19" s="4">
-        <v>0.91666666666666663</v>
-      </c>
       <c r="E19" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="13">
         <f t="shared" si="0"/>
@@ -1008,268 +990,128 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" s="3">
-        <v>42532</v>
+        <v>42547</v>
       </c>
       <c r="C20" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="D20" s="4">
-        <v>0.79166666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E20" s="7">
         <v>2</v>
       </c>
       <c r="F20" s="13">
         <f t="shared" si="0"/>
-        <v>0.37499999999999994</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3">
-        <v>42533</v>
+        <v>42551</v>
       </c>
       <c r="C21" s="4">
-        <v>0.79166666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="D21" s="4">
-        <v>0.95833333333333337</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E21" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F21" s="13">
         <f t="shared" si="0"/>
-        <v>0.16666666666666674</v>
+        <v>0.39583333333333337</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B22" s="3">
-        <v>42535</v>
+        <v>42551</v>
       </c>
       <c r="C22" s="4">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D22" s="4">
-        <v>0.95833333333333337</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E22" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22" s="13">
         <f t="shared" si="0"/>
-        <v>0.16666666666666674</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3">
-        <v>42537</v>
+        <v>42552</v>
       </c>
       <c r="C23" s="4">
         <v>0.41666666666666669</v>
       </c>
       <c r="D23" s="4">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E23" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F23" s="13">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" s="3">
-        <v>42538</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="7">
-        <v>4</v>
+        <v>42553</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E24" s="8">
+        <v>11</v>
       </c>
       <c r="F24" s="13">
         <f t="shared" si="0"/>
-        <v>0.16666666666666669</v>
+        <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3">
-        <v>42539</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0.875</v>
-      </c>
-      <c r="E25" s="7">
-        <v>8</v>
-      </c>
-      <c r="F25" s="13">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3">
-        <v>42540</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E26" s="7">
-        <v>2</v>
-      </c>
-      <c r="F26" s="13">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666663</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3">
-        <v>42547</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="E27" s="7">
-        <v>2</v>
-      </c>
-      <c r="F27" s="13">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="3">
-        <v>42551</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E28" s="7">
-        <v>8</v>
-      </c>
-      <c r="F28" s="13">
-        <f t="shared" si="0"/>
-        <v>0.39583333333333337</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="3">
-        <v>42551</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1</v>
-      </c>
-      <c r="F29" s="13">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="3">
-        <v>42552</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E30" s="7">
-        <v>8</v>
-      </c>
-      <c r="F30" s="13">
-        <f t="shared" si="0"/>
-        <v>0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="10">
-        <f>SUM(E3:E32)</f>
-        <v>97</v>
-      </c>
-      <c r="F33" s="15">
-        <f>SUM(F3:F32)</f>
-        <v>5.2916666666666679</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="10">
+        <f>SUM(E3:E25)</f>
+        <v>113</v>
+      </c>
+      <c r="F26" s="15">
+        <f>SUM(F3:F25)</f>
+        <v>4.625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
